--- a/ImporterCSV/42.xlsx
+++ b/ImporterCSV/42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140D4FB9-D603-44B5-B008-D219019B23E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED0992-48EA-484C-8C33-A50A427AF3B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
   <dimension ref="A2:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,7 +373,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>

--- a/ImporterCSV/42.xlsx
+++ b/ImporterCSV/42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED0992-48EA-484C-8C33-A50A427AF3B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6367456A-78CC-4CC3-8062-F73A0399CE59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Odyssée</t>
   </si>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>Laurie-Ann</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>idBook</t>
+  </si>
+  <si>
+    <t>idUser</t>
   </si>
 </sst>
 </file>
@@ -351,14 +360,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K14" activeCellId="1" sqref="G2 K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>289</v>
@@ -373,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>

--- a/ImporterCSV/42.xlsx
+++ b/ImporterCSV/42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ImplantationAndroid\ImporterCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6367456A-78CC-4CC3-8062-F73A0399CE59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFDAE9A-DCDF-4437-B412-90DE970840F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,7 +363,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" activeCellId="1" sqref="G2 K14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +387,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
